--- a/predictdata/alertcode.xlsx
+++ b/predictdata/alertcode.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27760" windowHeight="13360"/>
+    <workbookView windowWidth="27500" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="285">
   <si>
     <t>name</t>
   </si>
@@ -624,10 +637,10 @@
     <t>HVAC130</t>
   </si>
   <si>
-    <t>bFlt_EEV_U11</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-1</t>
+    <t>bFlt_FAD_U1</t>
+  </si>
+  <si>
+    <t>新风阀U1</t>
   </si>
   <si>
     <r>
@@ -636,7 +649,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>电子膨胀阀</t>
+      <t>新风阀</t>
     </r>
     <r>
       <rPr>
@@ -644,6 +657,196 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC133</t>
+  </si>
+  <si>
+    <t>检查风阀执行器动作、反馈指示是否正常；检查全开反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>bFlt_RAD_U1</t>
+  </si>
+  <si>
+    <t>回风阀U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回风阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC134</t>
+  </si>
+  <si>
+    <t>bFlt_AirClean_U1</t>
+  </si>
+  <si>
+    <t>空气净化U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空气净化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC135</t>
+  </si>
+  <si>
+    <t>检查空气净化器运行是否正常；检查故障反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>bFlt_ExpBoard_U1</t>
+  </si>
+  <si>
+    <t>扩展模块U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC136</t>
+  </si>
+  <si>
+    <t>控制系统</t>
+  </si>
+  <si>
+    <t>检查扩展模块供电是否正常；检查扩展模块通讯线路是否存在虚接情况</t>
+  </si>
+  <si>
+    <t>可维持运营到终点站后回库处理检查</t>
+  </si>
+  <si>
+    <t>bFlt_FrsTemp_U1</t>
+  </si>
+  <si>
+    <t>新风温度传感器U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC137</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U11</t>
+  </si>
+  <si>
+    <t>送风温度传感器1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>1-1</t>
     </r>
     <r>
@@ -656,19 +859,13 @@
     </r>
   </si>
   <si>
-    <t>HVAC131</t>
-  </si>
-  <si>
-    <t>检查电子膨胀阀控制器显示参数是否正常；检查故障反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>可维持运营到终点站后回库处理检查</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U12</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-2</t>
+    <t>HVAC138</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U12</t>
+  </si>
+  <si>
+    <t>送风温度传感器1-2</t>
   </si>
   <si>
     <r>
@@ -677,7 +874,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>电子膨胀阀</t>
+      <t>送风温度传感器</t>
     </r>
     <r>
       <rPr>
@@ -697,13 +894,13 @@
     </r>
   </si>
   <si>
-    <t>HVAC132</t>
-  </si>
-  <si>
-    <t>bFlt_FAD_U1</t>
-  </si>
-  <si>
-    <t>新风阀U1</t>
+    <t>HVAC139</t>
+  </si>
+  <si>
+    <t>bFlt_RntTemp_U1</t>
+  </si>
+  <si>
+    <t>回风温度传感器U1</t>
   </si>
   <si>
     <r>
@@ -712,7 +909,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>新风阀</t>
+      <t>回风温度传感器</t>
     </r>
     <r>
       <rPr>
@@ -732,16 +929,13 @@
     </r>
   </si>
   <si>
-    <t>HVAC133</t>
-  </si>
-  <si>
-    <t>检查风阀执行器动作、反馈指示是否正常；检查全开反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>bFlt_RAD_U1</t>
-  </si>
-  <si>
-    <t>回风阀U1</t>
+    <t>HVAC140</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U11</t>
+  </si>
+  <si>
+    <t>融霜温度传感器1-1</t>
   </si>
   <si>
     <r>
@@ -750,7 +944,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回风阀</t>
+      <t>融霜温度传感器</t>
     </r>
     <r>
       <rPr>
@@ -758,7 +952,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>U1</t>
+      <t>1-1</t>
     </r>
     <r>
       <rPr>
@@ -770,13 +964,13 @@
     </r>
   </si>
   <si>
-    <t>HVAC134</t>
-  </si>
-  <si>
-    <t>bFlt_AirClean_U1</t>
-  </si>
-  <si>
-    <t>空气净化U1</t>
+    <t>HVAC141</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U12</t>
+  </si>
+  <si>
+    <t>融霜温度传感器1-2</t>
   </si>
   <si>
     <r>
@@ -785,7 +979,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>空气净化</t>
+      <t>融霜温度传感器</t>
     </r>
     <r>
       <rPr>
@@ -793,7 +987,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>U1</t>
+      <t>1-2</t>
     </r>
     <r>
       <rPr>
@@ -805,16 +999,73 @@
     </r>
   </si>
   <si>
-    <t>HVAC135</t>
-  </si>
-  <si>
-    <t>检查空气净化器运行是否正常；检查故障反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>bFlt_ExpBoard_U1</t>
-  </si>
-  <si>
-    <t>扩展模块U1</t>
+    <t>HVAC142</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U21</t>
+  </si>
+  <si>
+    <t>通风机2-1过流</t>
+  </si>
+  <si>
+    <t>通风机2-1过流故障</t>
+  </si>
+  <si>
+    <t>HVAC143</t>
+  </si>
+  <si>
+    <t>手动复位机组2通风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U22</t>
+  </si>
+  <si>
+    <t>通风机2-2过流</t>
+  </si>
+  <si>
+    <t>通风机2-2过流故障</t>
+  </si>
+  <si>
+    <t>HVAC144</t>
+  </si>
+  <si>
+    <t>手动复位机组2通风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U21</t>
+  </si>
+  <si>
+    <t>冷凝风机2-1过流</t>
+  </si>
+  <si>
+    <t>冷凝风机2-1过流故障</t>
+  </si>
+  <si>
+    <t>HVAC145</t>
+  </si>
+  <si>
+    <t>手动复位机组2冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U22</t>
+  </si>
+  <si>
+    <t>冷凝风机2-2过流</t>
+  </si>
+  <si>
+    <t>冷凝风机2-2过流故障</t>
+  </si>
+  <si>
+    <t>HVAC146</t>
+  </si>
+  <si>
+    <t>手动复位机组2冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U21</t>
+  </si>
+  <si>
+    <t>变频器2-1</t>
   </si>
   <si>
     <r>
@@ -823,7 +1074,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>扩展模块</t>
+      <t>变频器2</t>
     </r>
     <r>
       <rPr>
@@ -831,7 +1082,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>U1</t>
+      <t>-1</t>
     </r>
     <r>
       <rPr>
@@ -843,40 +1094,31 @@
     </r>
   </si>
   <si>
-    <t>HVAC136</t>
-  </si>
-  <si>
-    <t>控制系统</t>
-  </si>
-  <si>
-    <t>检查扩展模块供电是否正常；检查扩展模块通讯线路是否存在虚接情况</t>
-  </si>
-  <si>
-    <t>bFlt_FrsTemp_U1</t>
-  </si>
-  <si>
-    <t>新风温度传感器U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>HVAC147</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>新风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -884,13 +1126,34 @@
     </r>
   </si>
   <si>
-    <t>HVAC137</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U11</t>
-  </si>
-  <si>
-    <t>送风温度传感器1-1</t>
+    <t>bLPFlt_Comp_U21</t>
+  </si>
+  <si>
+    <t>压缩机2-1低压</t>
+  </si>
+  <si>
+    <t>压缩机2-1低压故障</t>
+  </si>
+  <si>
+    <t>HVAC148</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U21</t>
+  </si>
+  <si>
+    <t>压缩机2-1高压连锁</t>
+  </si>
+  <si>
+    <t>压缩机2-1高压连锁故障</t>
+  </si>
+  <si>
+    <t>HVAC149</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U22</t>
+  </si>
+  <si>
+    <t>变频器2-2</t>
   </si>
   <si>
     <r>
@@ -899,6 +1162,154 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC150</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>bLPFlt_Comp_U22</t>
+  </si>
+  <si>
+    <t>压缩机2-2低压</t>
+  </si>
+  <si>
+    <t>压缩机2-2低压故障</t>
+  </si>
+  <si>
+    <t>HVAC151</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U22</t>
+  </si>
+  <si>
+    <t>压缩机2-2高压连锁</t>
+  </si>
+  <si>
+    <t>压缩机2-2高压连锁故障</t>
+  </si>
+  <si>
+    <t>HVAC152</t>
+  </si>
+  <si>
+    <t>bFlt_FAD_U2</t>
+  </si>
+  <si>
+    <t>新风阀U2</t>
+  </si>
+  <si>
+    <t>新风阀U2故障</t>
+  </si>
+  <si>
+    <t>HVAC155</t>
+  </si>
+  <si>
+    <t>bFlt_RAD_U2</t>
+  </si>
+  <si>
+    <t>回风阀U2</t>
+  </si>
+  <si>
+    <t>回风阀U2故障</t>
+  </si>
+  <si>
+    <t>HVAC156</t>
+  </si>
+  <si>
+    <t>bFlt_AirClean_U2</t>
+  </si>
+  <si>
+    <t>空气净化U2</t>
+  </si>
+  <si>
+    <t>空气净化U2故障</t>
+  </si>
+  <si>
+    <t>HVAC157</t>
+  </si>
+  <si>
+    <t>bFlt_ExpBoard_U2</t>
+  </si>
+  <si>
+    <t>扩展模块U2</t>
+  </si>
+  <si>
+    <t>扩展模块U2故障</t>
+  </si>
+  <si>
+    <t>HVAC158</t>
+  </si>
+  <si>
+    <t>bFlt_FrsTemp_U2</t>
+  </si>
+  <si>
+    <t>新风温度传感器U2</t>
+  </si>
+  <si>
+    <t>新风温度传感器U2故障</t>
+  </si>
+  <si>
+    <t>HVAC159</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U21</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>送风温度传感器</t>
     </r>
     <r>
@@ -907,7 +1318,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-1</t>
+      <t>2-1</t>
     </r>
     <r>
       <rPr>
@@ -919,13 +1330,61 @@
     </r>
   </si>
   <si>
-    <t>HVAC138</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U12</t>
-  </si>
-  <si>
-    <t>送风温度传感器1-2</t>
+    <t>HVAC160</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U22</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-2</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-2故障</t>
+  </si>
+  <si>
+    <t>HVAC161</t>
+  </si>
+  <si>
+    <t>bFlt_RntTemp_U2</t>
+  </si>
+  <si>
+    <t>回风温度传感器U2</t>
+  </si>
+  <si>
+    <t>回风温度传感器U2故障</t>
+  </si>
+  <si>
+    <t>HVAC162</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U21</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-1</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-1故障</t>
+  </si>
+  <si>
+    <t>HVAC163</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U22</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-2</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-2故障</t>
+  </si>
+  <si>
+    <t>HVAC164</t>
+  </si>
+  <si>
+    <t>bFlt_VehTemp</t>
+  </si>
+  <si>
+    <t>车厢温度传感器1</t>
   </si>
   <si>
     <r>
@@ -934,7 +1393,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>送风温度传感器</t>
+      <t>车厢温度传感器</t>
     </r>
     <r>
       <rPr>
@@ -942,7 +1401,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -954,549 +1413,6 @@
     </r>
   </si>
   <si>
-    <t>HVAC139</t>
-  </si>
-  <si>
-    <t>bFlt_RntTemp_U1</t>
-  </si>
-  <si>
-    <t>回风温度传感器U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC140</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U11</t>
-  </si>
-  <si>
-    <t>融霜温度传感器1-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>融霜温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC141</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U12</t>
-  </si>
-  <si>
-    <t>融霜温度传感器1-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>融霜温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC142</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U21</t>
-  </si>
-  <si>
-    <t>通风机2-1过流</t>
-  </si>
-  <si>
-    <t>通风机2-1过流故障</t>
-  </si>
-  <si>
-    <t>HVAC143</t>
-  </si>
-  <si>
-    <t>手动复位机组2通风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U22</t>
-  </si>
-  <si>
-    <t>通风机2-2过流</t>
-  </si>
-  <si>
-    <t>通风机2-2过流故障</t>
-  </si>
-  <si>
-    <t>HVAC144</t>
-  </si>
-  <si>
-    <t>手动复位机组2通风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U21</t>
-  </si>
-  <si>
-    <t>冷凝风机2-1过流</t>
-  </si>
-  <si>
-    <t>冷凝风机2-1过流故障</t>
-  </si>
-  <si>
-    <t>HVAC145</t>
-  </si>
-  <si>
-    <t>手动复位机组2冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U22</t>
-  </si>
-  <si>
-    <t>冷凝风机2-2过流</t>
-  </si>
-  <si>
-    <t>冷凝风机2-2过流故障</t>
-  </si>
-  <si>
-    <t>HVAC146</t>
-  </si>
-  <si>
-    <t>手动复位机组2冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U21</t>
-  </si>
-  <si>
-    <t>变频器2-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC147</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U21</t>
-  </si>
-  <si>
-    <t>压缩机2-1低压</t>
-  </si>
-  <si>
-    <t>压缩机2-1低压故障</t>
-  </si>
-  <si>
-    <t>HVAC148</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U21</t>
-  </si>
-  <si>
-    <t>压缩机2-1高压连锁</t>
-  </si>
-  <si>
-    <t>压缩机2-1高压连锁故障</t>
-  </si>
-  <si>
-    <t>HVAC149</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U22</t>
-  </si>
-  <si>
-    <t>变频器2-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC150</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U22</t>
-  </si>
-  <si>
-    <t>压缩机2-2低压</t>
-  </si>
-  <si>
-    <t>压缩机2-2低压故障</t>
-  </si>
-  <si>
-    <t>HVAC151</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U22</t>
-  </si>
-  <si>
-    <t>压缩机2-2高压连锁</t>
-  </si>
-  <si>
-    <t>压缩机2-2高压连锁故障</t>
-  </si>
-  <si>
-    <t>HVAC152</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U21</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1故障</t>
-  </si>
-  <si>
-    <t>HVAC153</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U22</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC154</t>
-  </si>
-  <si>
-    <t>bFlt_FAD_U2</t>
-  </si>
-  <si>
-    <t>新风阀U2</t>
-  </si>
-  <si>
-    <t>新风阀U2故障</t>
-  </si>
-  <si>
-    <t>HVAC155</t>
-  </si>
-  <si>
-    <t>bFlt_RAD_U2</t>
-  </si>
-  <si>
-    <t>回风阀U2</t>
-  </si>
-  <si>
-    <t>回风阀U2故障</t>
-  </si>
-  <si>
-    <t>HVAC156</t>
-  </si>
-  <si>
-    <t>bFlt_AirClean_U2</t>
-  </si>
-  <si>
-    <t>空气净化U2</t>
-  </si>
-  <si>
-    <t>空气净化U2故障</t>
-  </si>
-  <si>
-    <t>HVAC157</t>
-  </si>
-  <si>
-    <t>bFlt_ExpBoard_U2</t>
-  </si>
-  <si>
-    <t>扩展模块U2</t>
-  </si>
-  <si>
-    <t>扩展模块U2故障</t>
-  </si>
-  <si>
-    <t>HVAC158</t>
-  </si>
-  <si>
-    <t>bFlt_FrsTemp_U2</t>
-  </si>
-  <si>
-    <t>新风温度传感器U2</t>
-  </si>
-  <si>
-    <t>新风温度传感器U2故障</t>
-  </si>
-  <si>
-    <t>HVAC159</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U21</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>2-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC160</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U22</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-2</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC161</t>
-  </si>
-  <si>
-    <t>bFlt_RntTemp_U2</t>
-  </si>
-  <si>
-    <t>回风温度传感器U2</t>
-  </si>
-  <si>
-    <t>回风温度传感器U2故障</t>
-  </si>
-  <si>
-    <t>HVAC162</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U21</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-1</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-1故障</t>
-  </si>
-  <si>
-    <t>HVAC163</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U22</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-2</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC164</t>
-  </si>
-  <si>
-    <t>bFlt_VehTemp</t>
-  </si>
-  <si>
-    <t>车厢温度传感器1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车厢温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
     <t>HVAC165</t>
   </si>
   <si>
@@ -1576,57 +1492,6 @@
   </si>
   <si>
     <t>HVAC171</t>
-  </si>
-  <si>
-    <t>bComuFlt_EEV_U11</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-1通讯</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-1通讯故障</t>
-  </si>
-  <si>
-    <t>HVAC172</t>
-  </si>
-  <si>
-    <t>检查电子膨胀阀控制器供电是否正常；检查通讯线路是否存在虚接情况</t>
-  </si>
-  <si>
-    <t>bComuFlt_EEV_U12</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-2通讯</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-2通讯故障</t>
-  </si>
-  <si>
-    <t>HVAC173</t>
-  </si>
-  <si>
-    <t>bComuFlt_EEV_U21</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1通讯</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1通讯故障</t>
-  </si>
-  <si>
-    <t>HVAC174</t>
-  </si>
-  <si>
-    <t>bComuFlt_EEV_U22</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2通讯</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2通讯故障</t>
-  </si>
-  <si>
-    <t>HVAC175</t>
   </si>
   <si>
     <t>bMCBFlt_Pwr_U1</t>
@@ -1665,12 +1530,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1731,53 +1596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1791,31 +1612,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1831,10 +1636,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1848,6 +1669,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,11 +1726,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1902,7 +1767,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,121 +1929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,43 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,24 +1970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2138,17 +1985,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2177,17 +2018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2202,156 +2032,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2378,10 +2243,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2397,64 +2265,61 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2723,10 +2588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2759,7 +2624,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2768,22 +2633,22 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2812,7 +2677,7 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2832,13 +2697,13 @@
       <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="17">
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -2881,7 +2746,7 @@
       <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="17">
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -2930,7 +2795,7 @@
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="17">
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -2979,7 +2844,7 @@
       <c r="L5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="17">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -3028,7 +2893,7 @@
       <c r="L6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="17">
         <v>0</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -3077,7 +2942,7 @@
       <c r="L7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -3126,7 +2991,7 @@
       <c r="L8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="17">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -3175,7 +3040,7 @@
       <c r="L9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="17">
         <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
@@ -3224,7 +3089,7 @@
       <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="17">
         <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -3253,7 +3118,7 @@
       <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3273,13 +3138,13 @@
       <c r="L11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="17">
         <v>1</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -3302,7 +3167,7 @@
       <c r="D12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -3322,13 +3187,13 @@
       <c r="L12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="17">
         <v>1</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="16" t="s">
         <v>70</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -3351,7 +3216,7 @@
       <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -3371,13 +3236,13 @@
       <c r="L13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="17">
         <v>2</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="P13" s="5" t="s">
@@ -3400,7 +3265,7 @@
       <c r="D14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3420,13 +3285,13 @@
       <c r="L14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="17">
         <v>2</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="16" t="s">
         <v>80</v>
       </c>
       <c r="P14" s="5" t="s">
@@ -3449,7 +3314,7 @@
       <c r="D15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -3469,13 +3334,13 @@
       <c r="L15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="17">
         <v>2</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="16" t="s">
         <v>85</v>
       </c>
       <c r="P15" s="5" t="s">
@@ -3498,7 +3363,7 @@
       <c r="D16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3518,13 +3383,13 @@
       <c r="L16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="17">
         <v>2</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="P16" s="5" t="s">
@@ -3547,7 +3412,7 @@
       <c r="D17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3567,13 +3432,13 @@
       <c r="L17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="17">
         <v>2</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="16" t="s">
         <v>98</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -3596,7 +3461,7 @@
       <c r="D18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -3616,13 +3481,13 @@
       <c r="L18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="17">
         <v>2</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="16" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -3645,7 +3510,7 @@
       <c r="D19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -3665,13 +3530,13 @@
       <c r="L19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="17">
         <v>2</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -3694,7 +3559,7 @@
       <c r="D20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -3714,13 +3579,13 @@
       <c r="L20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="17">
         <v>2</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="16" t="s">
         <v>111</v>
       </c>
       <c r="P20" s="5" t="s">
@@ -3743,7 +3608,7 @@
       <c r="D21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3763,40 +3628,40 @@
       <c r="L21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="16">
-        <v>2</v>
+      <c r="M21" s="17">
+        <v>3</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>115</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>117</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:17">
       <c r="A22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -3812,40 +3677,40 @@
       <c r="L22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="16">
-        <v>2</v>
+      <c r="M22" s="17">
+        <v>3</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>121</v>
+        <v>65</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>117</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:17">
       <c r="A23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="F23" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -3861,17 +3726,17 @@
       <c r="L23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="17">
         <v>3</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>125</v>
+      <c r="O23" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>25</v>
@@ -3879,22 +3744,22 @@
     </row>
     <row r="24" ht="17" spans="1:17">
       <c r="A24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="F24" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -3910,25 +3775,25 @@
       <c r="L24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="16">
-        <v>3</v>
+      <c r="M24" s="17">
+        <v>2</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:17">
       <c r="A25" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -3937,13 +3802,13 @@
         <v>18</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -3959,17 +3824,17 @@
       <c r="L25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="17">
         <v>3</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>25</v>
@@ -3977,7 +3842,7 @@
     </row>
     <row r="26" ht="17" spans="1:17">
       <c r="A26" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -3986,13 +3851,13 @@
         <v>18</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="15" t="s">
         <v>139</v>
       </c>
+      <c r="E26" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -4008,40 +3873,40 @@
       <c r="L26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="16">
-        <v>2</v>
+      <c r="M26" s="17">
+        <v>3</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>139</v>
+        <v>93</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:17">
       <c r="A27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -4057,14 +3922,14 @@
       <c r="L27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="17">
         <v>3</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O27" s="15" t="s">
-        <v>145</v>
+      <c r="O27" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>51</v>
@@ -4075,22 +3940,22 @@
     </row>
     <row r="28" ht="17" spans="1:17">
       <c r="A28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -4106,14 +3971,14 @@
       <c r="L28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="17">
         <v>3</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="15" t="s">
-        <v>149</v>
+      <c r="O28" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>51</v>
@@ -4124,22 +3989,22 @@
     </row>
     <row r="29" ht="17" spans="1:17">
       <c r="A29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="F29" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -4155,14 +4020,14 @@
       <c r="L29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="17">
         <v>3</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>153</v>
+      <c r="O29" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>51</v>
@@ -4173,22 +4038,22 @@
     </row>
     <row r="30" ht="17" spans="1:17">
       <c r="A30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="F30" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -4204,14 +4069,14 @@
       <c r="L30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="17">
         <v>3</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="15" t="s">
-        <v>157</v>
+      <c r="O30" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>51</v>
@@ -4222,22 +4087,22 @@
     </row>
     <row r="31" ht="17" spans="1:17">
       <c r="A31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="F31" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
@@ -4253,20 +4118,20 @@
       <c r="L31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="16">
-        <v>3</v>
+      <c r="M31" s="17">
+        <v>1</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>161</v>
+        <v>65</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:17">
@@ -4282,7 +4147,7 @@
       <c r="D32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -4302,25 +4167,25 @@
       <c r="L32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="16">
-        <v>3</v>
+      <c r="M32" s="17">
+        <v>1</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>165</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:17">
       <c r="A33" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -4329,13 +4194,13 @@
         <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -4351,25 +4216,25 @@
       <c r="L33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="16">
-        <v>1</v>
+      <c r="M33" s="17">
+        <v>2</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>66</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:17">
       <c r="A34" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -4378,13 +4243,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -4400,25 +4265,25 @@
       <c r="L34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="16">
-        <v>1</v>
+      <c r="M34" s="17">
+        <v>2</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:17">
       <c r="A35" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -4427,13 +4292,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="E35" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -4449,25 +4314,25 @@
       <c r="L35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="17">
         <v>2</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>179</v>
+      <c r="O35" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:17">
       <c r="A36" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -4476,13 +4341,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -4498,20 +4363,20 @@
       <c r="L36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="17">
         <v>2</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:17">
@@ -4527,7 +4392,7 @@
       <c r="D37" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="5" t="s">
         <v>189</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -4547,40 +4412,40 @@
       <c r="L37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="17">
         <v>2</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>191</v>
+        <v>93</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:17">
       <c r="A38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -4596,20 +4461,20 @@
       <c r="L38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="17">
         <v>2</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>194</v>
+        <v>23</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:17">
@@ -4645,7 +4510,7 @@
       <c r="L39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="17">
         <v>2</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -4655,7 +4520,7 @@
         <v>198</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>95</v>
@@ -4674,7 +4539,7 @@
       <c r="D40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="5" t="s">
         <v>202</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -4694,40 +4559,40 @@
       <c r="L40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="17">
         <v>2</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>204</v>
+        <v>93</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:17">
       <c r="A41" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -4743,40 +4608,40 @@
       <c r="L41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="16">
-        <v>2</v>
+      <c r="M41" s="17">
+        <v>3</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:17">
       <c r="A42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -4792,40 +4657,40 @@
       <c r="L42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="16">
-        <v>2</v>
+      <c r="M42" s="17">
+        <v>3</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:17">
       <c r="A43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -4841,40 +4706,40 @@
       <c r="L43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="16">
-        <v>2</v>
+      <c r="M43" s="17">
+        <v>3</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:17">
       <c r="A44" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -4890,40 +4755,40 @@
       <c r="L44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="17">
         <v>2</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:17">
       <c r="A45" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="5">
-        <v>0</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -4939,17 +4804,17 @@
       <c r="L45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="17">
         <v>3</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>25</v>
@@ -4957,22 +4822,22 @@
     </row>
     <row r="46" ht="17" spans="1:17">
       <c r="A46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -4988,17 +4853,17 @@
       <c r="L46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="17">
         <v>3</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>227</v>
+        <v>93</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>25</v>
@@ -5006,22 +4871,22 @@
     </row>
     <row r="47" ht="17" spans="1:17">
       <c r="A47" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -5037,17 +4902,17 @@
       <c r="L47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="17">
         <v>3</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>25</v>
@@ -5055,22 +4920,22 @@
     </row>
     <row r="48" ht="17" spans="1:17">
       <c r="A48" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -5086,40 +4951,40 @@
       <c r="L48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="16">
-        <v>2</v>
+      <c r="M48" s="17">
+        <v>3</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:17">
       <c r="A49" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -5135,14 +5000,14 @@
       <c r="L49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="17">
         <v>3</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>93</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>51</v>
@@ -5153,22 +5018,22 @@
     </row>
     <row r="50" ht="17" spans="1:17">
       <c r="A50" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="5">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="F50" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -5184,14 +5049,14 @@
       <c r="L50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="17">
         <v>3</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O50" s="15" t="s">
-        <v>243</v>
+      <c r="O50" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>51</v>
@@ -5201,23 +5066,23 @@
       </c>
     </row>
     <row r="51" ht="17" spans="1:17">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -5233,14 +5098,14 @@
       <c r="L51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="17">
         <v>3</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>247</v>
+      <c r="O51" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>51</v>
@@ -5250,23 +5115,23 @@
       </c>
     </row>
     <row r="52" ht="17" spans="1:17">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="5">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -5282,14 +5147,14 @@
       <c r="L52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="17">
         <v>3</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>93</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>51</v>
@@ -5299,23 +5164,23 @@
       </c>
     </row>
     <row r="53" ht="17" spans="1:17">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="5">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -5331,24 +5196,24 @@
       <c r="L53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="16">
-        <v>3</v>
+      <c r="M53" s="17">
+        <v>1</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="17" spans="1:17">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B54" s="5">
@@ -5380,25 +5245,25 @@
       <c r="L54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="16">
-        <v>3</v>
+      <c r="M54" s="17">
+        <v>2</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>259</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" ht="17" spans="1:17">
       <c r="A55" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -5407,13 +5272,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E55" s="15" t="s">
         <v>263</v>
       </c>
+      <c r="E55" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -5429,25 +5294,25 @@
       <c r="L55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="16">
-        <v>3</v>
+      <c r="M55" s="17">
+        <v>2</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O55" s="15" t="s">
-        <v>263</v>
+        <v>23</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="17" spans="1:17">
       <c r="A56" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -5456,13 +5321,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -5478,25 +5343,25 @@
       <c r="L56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="16">
-        <v>3</v>
+      <c r="M56" s="17">
+        <v>2</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" ht="17" spans="1:17">
       <c r="A57" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -5505,13 +5370,13 @@
         <v>18</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -5527,20 +5392,20 @@
       <c r="L57" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="16">
-        <v>1</v>
+      <c r="M57" s="17">
+        <v>2</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" ht="17" spans="1:17">
@@ -5576,11 +5441,11 @@
       <c r="L58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="16">
-        <v>2</v>
+      <c r="M58" s="17">
+        <v>1</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>276</v>
@@ -5589,12 +5454,12 @@
         <v>278</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" ht="17" spans="1:17">
       <c r="A59" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -5603,13 +5468,13 @@
         <v>18</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -5625,428 +5490,60 @@
       <c r="L59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="16">
-        <v>2</v>
+      <c r="M59" s="17">
+        <v>1</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>278</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" ht="17" spans="1:17">
-      <c r="A60" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5">
-        <v>5</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="16">
-        <v>2</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" ht="17" spans="1:17">
-      <c r="A61" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5">
-        <v>5</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="16">
-        <v>2</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" ht="17" spans="1:17">
-      <c r="A62" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5">
-        <v>5</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M62" s="16">
-        <v>2</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" ht="17" spans="1:17">
-      <c r="A63" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5">
-        <v>5</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="16">
-        <v>2</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" ht="17" spans="1:17">
-      <c r="A64" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5">
-        <v>5</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="16">
-        <v>2</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q64" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" ht="17" spans="1:17">
-      <c r="A65" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5">
-        <v>5</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M65" s="16">
-        <v>2</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q65" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" ht="17" spans="1:17">
-      <c r="A66" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5">
-        <v>5</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="16">
-        <v>1</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" ht="17" spans="1:17">
-      <c r="A67" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5">
-        <v>5</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="16">
-        <v>1</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="P67" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>318</v>
-      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="12"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="12"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="12"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="12"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="20"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="20"/>
@@ -6059,30 +5556,6 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="20"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="20"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="20"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="20"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="20"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="20"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="20"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="20"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictdata/alertcode.xlsx
+++ b/predictdata/alertcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="11200"/>
+    <workbookView windowWidth="29980" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>ref_leak_u11</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>B</t>
   </si>
   <si>
     <t>机组1系统1</t>
@@ -2590,8 +2590,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
